--- a/schedules/schedule_classrooms.xlsx
+++ b/schedules/schedule_classrooms.xlsx
@@ -1009,7 +1009,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="13" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H15" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I15" s="17" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="H11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="17" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="P12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="20" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="D10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="20" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="L10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="20" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="H11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="17" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="17" t="inlineStr">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -10085,7 +10085,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="L12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="13" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="P12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="13" t="inlineStr">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="L13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M13" s="17" t="inlineStr">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -11599,7 +11599,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="D12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="20" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="P13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="17" t="inlineStr">
@@ -13425,7 +13425,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -13469,7 +13469,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -13489,7 +13489,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -13519,7 +13519,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -13579,7 +13579,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -13673,7 +13673,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -13877,7 +13877,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -14099,7 +14099,7 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -14127,7 +14127,7 @@
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="17" t="inlineStr">
@@ -14393,7 +14393,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -14453,7 +14453,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -14543,7 +14543,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -14653,7 +14653,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -14673,7 +14673,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -14743,7 +14743,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -14951,7 +14951,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -14971,7 +14971,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -15049,7 +15049,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -15069,7 +15069,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -15385,7 +15385,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -15647,7 +15647,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -15667,7 +15667,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -15797,7 +15797,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -15871,7 +15871,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -15925,7 +15925,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -15949,7 +15949,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -16003,7 +16003,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="D12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="20" t="inlineStr">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="H12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="20" t="inlineStr">
@@ -16121,7 +16121,7 @@
       </c>
       <c r="L12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="20" t="inlineStr">
@@ -16625,7 +16625,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -16809,7 +16809,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -16985,7 +16985,7 @@
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -17029,7 +17029,7 @@
       </c>
       <c r="T12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="15" t="inlineStr">
@@ -17059,7 +17059,7 @@
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="13" t="inlineStr">
@@ -17107,7 +17107,7 @@
       </c>
       <c r="T13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U13" s="13" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="T14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U14" s="13" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="D15" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" s="17" t="inlineStr">
@@ -17461,7 +17461,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -17505,7 +17505,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -17539,7 +17539,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -17559,7 +17559,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -17617,7 +17617,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -17637,7 +17637,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -17755,7 +17755,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -17813,7 +17813,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -17911,7 +17911,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -17931,7 +17931,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -17965,7 +17965,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -18005,7 +18005,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -18065,7 +18065,7 @@
       </c>
       <c r="P11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="13" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="L12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="15" t="inlineStr">
@@ -18143,7 +18143,7 @@
       </c>
       <c r="P12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="15" t="inlineStr">
@@ -18163,7 +18163,7 @@
       </c>
       <c r="T12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="15" t="inlineStr">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="T13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U13" s="15" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" s="20" t="inlineStr">
@@ -18261,7 +18261,7 @@
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -18281,7 +18281,7 @@
       </c>
       <c r="P14" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q14" s="20" t="inlineStr">
@@ -18565,7 +18565,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -18603,7 +18603,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -18627,7 +18627,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -18657,7 +18657,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -18737,7 +18737,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -18787,7 +18787,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -18827,7 +18827,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -18861,7 +18861,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -18881,7 +18881,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -18941,7 +18941,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -18971,7 +18971,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -18995,7 +18995,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -19015,7 +19015,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -19065,7 +19065,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -19143,7 +19143,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -19221,7 +19221,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -19249,7 +19249,7 @@
       </c>
       <c r="P12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="13" t="inlineStr">
@@ -19269,7 +19269,7 @@
       </c>
       <c r="T12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="13" t="inlineStr">
@@ -19315,7 +19315,7 @@
       </c>
       <c r="T13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U13" s="17" t="inlineStr">
@@ -19597,7 +19597,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -19707,7 +19707,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -19953,7 +19953,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="P12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="20" t="inlineStr">
@@ -20531,7 +20531,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -20667,7 +20667,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -20707,7 +20707,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -20747,7 +20747,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -20841,7 +20841,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -20871,7 +20871,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -20965,7 +20965,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -21043,7 +21043,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -21063,7 +21063,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -21149,7 +21149,7 @@
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="17" t="inlineStr">
@@ -21169,7 +21169,7 @@
       </c>
       <c r="T11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="17" t="inlineStr">
@@ -21435,7 +21435,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -21455,7 +21455,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -21589,7 +21589,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -21729,7 +21729,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -21749,7 +21749,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -21809,7 +21809,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -21839,7 +21839,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -21883,7 +21883,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -22011,7 +22011,7 @@
       </c>
       <c r="D10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="20" t="inlineStr">
@@ -22055,7 +22055,7 @@
       </c>
       <c r="P10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="20" t="inlineStr">
@@ -22075,7 +22075,7 @@
       </c>
       <c r="T10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="20" t="inlineStr">
@@ -23633,7 +23633,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -23661,7 +23661,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -23681,7 +23681,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -23731,7 +23731,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -23751,7 +23751,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -23791,7 +23791,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -23841,7 +23841,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -23861,7 +23861,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -23881,7 +23881,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -23959,7 +23959,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -24005,7 +24005,7 @@
       </c>
       <c r="P10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="20" t="inlineStr">
@@ -25521,7 +25521,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -25941,7 +25941,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -26493,7 +26493,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -26587,7 +26587,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -26935,7 +26935,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -26955,7 +26955,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -26997,7 +26997,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -27017,7 +27017,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -27059,7 +27059,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -27079,7 +27079,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -27167,7 +27167,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -27259,7 +27259,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="T11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="17" t="inlineStr">
@@ -27703,7 +27703,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -27749,7 +27749,7 @@
       </c>
       <c r="T9" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="17" t="inlineStr">
